--- a/A1/A1 - Correction Grid.xlsx
+++ b/A1/A1 - Correction Grid.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\git\comp3004\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF6775-79B5-4C75-8EA4-F1C6A1670D7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E62C8-9208-4A30-8283-7D84B41C89C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="179021" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
-  <si>
-    <t>CORRECTION GRID</t>
-  </si>
-  <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
-    <t>COMP3004 - Fall 2018</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Your game starts</t>
   </si>
@@ -87,12 +83,6 @@
     <t>If dealer has blackjack, it wins</t>
   </si>
   <si>
-    <t>Scoring of player's hand is correct</t>
-  </si>
-  <si>
-    <t>Scoring of dealer's hand is correct</t>
-  </si>
-  <si>
     <t xml:space="preserve">assuming no busts: </t>
   </si>
   <si>
@@ -114,18 +104,6 @@
     <t>in presence of splitting, winner is correctly chosen</t>
   </si>
   <si>
-    <t>you can handle incorrectly file input</t>
-  </si>
-  <si>
-    <t>You support a Java/FX GUI</t>
-  </si>
-  <si>
-    <t>yes/no</t>
-  </si>
-  <si>
-    <t>You respected the naming convention for your submission</t>
-  </si>
-  <si>
     <t>You have coded your dependencies using Maven</t>
   </si>
   <si>
@@ -141,9 +119,6 @@
     <t>You support console (c) input</t>
   </si>
   <si>
-    <t>tests always precede corresponding code in repository</t>
-  </si>
-  <si>
     <t>every method that has paths, has a test for each such path</t>
   </si>
   <si>
@@ -168,9 +143,6 @@
     <t>You systematically follow a TDD approach, that is:</t>
   </si>
   <si>
-    <t>The hand of the player is visible at the end of the player's turn</t>
-  </si>
-  <si>
     <t>The player can bust and this causes the dealer to win</t>
   </si>
   <si>
@@ -189,23 +161,184 @@
     <t>can hit once or more on each of the 2 stacks of the player</t>
   </si>
   <si>
-    <t>can hit one or more on each of the2  deadler stacks</t>
-  </si>
-  <si>
     <t>if player splits, the game chooses correctly the player's best hand</t>
   </si>
   <si>
     <t>if dealer splits, the game chooses correctlythe dealer's  best hand</t>
   </si>
   <si>
+    <t>You support a Java/FX GUI that works</t>
+  </si>
+  <si>
+    <t>You did NOT respected the naming convention for your submission</t>
+  </si>
+  <si>
+    <t>You do not support file input</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tests </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> precede corresponding code in repository</t>
+    </r>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your </t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual </t>
+  </si>
+  <si>
+    <t>CORRECTION GRID: if you leave a yes/no it will be taken as a no</t>
+  </si>
+  <si>
+    <t>DEDUCTIONS</t>
+  </si>
+  <si>
+    <t>COMP3004 - Fall 2018 - Assignment 1</t>
+  </si>
+  <si>
+    <t>you can handle incorrect file input</t>
+  </si>
+  <si>
+    <t>only Java/FX is accepted</t>
+  </si>
+  <si>
+    <t>name of each test method/file for this row</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Scoring of player's hand is displayed and is correct</t>
+  </si>
+  <si>
+    <t>Scoring of dealer's hand is displayed and is correct</t>
+  </si>
+  <si>
+    <t>The hand of the player is displayed at the end of the player's turn</t>
+  </si>
+  <si>
+    <t>TA's assessment of usability of GUI</t>
+  </si>
+  <si>
+    <t>TA's assessment of quality of GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill in ALL yellow cells and NOTHING else </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>names of relevant tests/files</t>
+  </si>
+  <si>
+    <t>can hit one or more on each of the2  dealer stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   and displays it</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Student #</t>
+  </si>
+  <si>
+    <t>Two aces in the same hand, 1 as 11 and 1 as 1 in terms of values</t>
+  </si>
+  <si>
+    <t>you get 1 mark per set of tests for each requirement from row 16 to row 45</t>
+  </si>
+  <si>
+    <t>tests are present</t>
+  </si>
+  <si>
+    <t>You do not support console input AND do not have a GUI</t>
+  </si>
+  <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>testCardValueIntConstructor</t>
+  </si>
+  <si>
+    <t>testCardValueStringConstructor</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>testHit</t>
+  </si>
+  <si>
+    <t>testMultipleHits</t>
+  </si>
+  <si>
+    <t>testDealersUnder16</t>
+  </si>
+  <si>
+    <t>testDealersSoft17</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oliviero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,13 +362,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -275,11 +439,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -293,6 +503,25 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -306,6 +535,25 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,484 +891,1102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2">
+        <v>101009320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUM(J16:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>SUM(K16:K45)</f>
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="6"/>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="6"/>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="6"/>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="6"/>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="6"/>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="6"/>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="6"/>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="6"/>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="6"/>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="6"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="6"/>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="6"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="6"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="6"/>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="6"/>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6"/>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="6"/>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="6"/>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="6"/>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="6"/>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="6"/>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="6"/>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="6"/>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="6"/>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="6"/>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="6"/>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="D64">
+        <f>SUM(D6:D62)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="7">
+        <f>SUM(C6:C74)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
